--- a/results/I3_N5_M3_T45_C100_DepLowerLeft_s2_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepLowerLeft_s2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.8168650133066</v>
+        <v>614.3672915212159</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.255000114440918</v>
+        <v>1.240999937057495</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.63686501310217</v>
+        <v>58.36729152121585</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.32172694346256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.32172694346256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>497.6600000002044</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56.52</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,17 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -667,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -711,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -802,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -893,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33.3913652826872</v>
+        <v>30.66483080554376</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41.86770052517324</v>
+        <v>38.33477654169562</v>
       </c>
     </row>
     <row r="6">
@@ -917,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -955,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,20 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>90.27500000000052</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1109,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>78.51000000000145</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -1120,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>79.22000000000047</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -1131,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>79.16500000000065</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -1142,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>87.62999999999964</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -1153,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>111.2650000000006</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
@@ -1164,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>115.6150000000006</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
@@ -1175,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>116.6850000000006</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15">
@@ -1186,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>116.8750000000006</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
@@ -1197,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>115.9200000000006</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17">
@@ -1208,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>131.4449999999996</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18">
@@ -1219,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>125.2250000000012</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19">
@@ -1230,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>117.0799999999993</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20">
@@ -1241,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>126.8150000000001</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21">
@@ -1252,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>132.95</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22">
@@ -1263,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000055</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -1274,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.4900000000028</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -1285,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5700000000053</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
@@ -1296,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -1307,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.675000000004</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -1318,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>46.62000000000052</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
@@ -1329,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>41.4750000000008</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29">
@@ -1340,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.92500000000047</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30">
@@ -1351,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>39.65500000000094</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -1362,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.76000000000045</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
@@ -1373,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>106.1700000000238</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33">
@@ -1384,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>112.4900000000253</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34">
@@ -1395,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>102.570000000027</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35">
@@ -1406,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>110.05</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36">
@@ -1417,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>107.6750000000266</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
@@ -1428,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>131.4449999999996</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38">
@@ -1439,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>125.2250000000012</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
@@ -1450,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>117.0799999999993</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40">
@@ -1461,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>126.8150000000001</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41">
@@ -1472,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>132.95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42">
@@ -1483,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>111.2650000000006</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43">
@@ -1494,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>115.6150000000006</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44">
@@ -1505,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>116.6850000000006</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45">
@@ -1516,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>116.8750000000006</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46">
@@ -1527,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>115.9200000000006</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6.17000000002281</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -1585,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>12.49000000002445</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -1596,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2.570000000026198</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -1607,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.05</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -1618,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.675000000025648</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1629,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>31.44499999999957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1640,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>25.22500000000117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1651,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>17.07999999999932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1662,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>26.81500000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1673,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>32.94999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1684,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>11.26500000000058</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1695,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.61500000000058</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -1706,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>16.68500000000057</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1717,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>16.8750000000006</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -1728,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>15.92000000000058</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1995,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2006,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2017,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2028,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2039,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2053,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2188,61 +2163,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
